--- a/Quiz_Testing/Build_01/Testing_docs.xlsx
+++ b/Quiz_Testing/Build_01/Testing_docs.xlsx
@@ -1027,9 +1027,6 @@
     <t>QZ_HP_SC_32</t>
   </si>
   <si>
-    <t>when user enter the Quize Application into the browser , Home page should be dispalyed showing Dashboard,Sign in, Sign up,links</t>
-  </si>
-  <si>
     <t>when user enter the Quize Application url into the browser ,Home page should be dispalyed showing Dashboard,Sign in, Sign up,links</t>
   </si>
   <si>
@@ -1268,6 +1265,9 @@
   </si>
   <si>
     <t>Verified "QZ Project datas" Page is not displaying</t>
+  </si>
+  <si>
+    <t>when user enter the Quize Application Url into the browser , Home page should be dispalyed showing Dashboard,Sign in, Sign up,links</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1840,7 +1840,7 @@
         <v>302</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2257,7 +2257,7 @@
         <v>302</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2313,7 +2313,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2439,7 +2439,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>51</v>
@@ -2683,7 +2683,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>51</v>
@@ -3056,7 +3056,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>51</v>
@@ -3436,7 +3436,7 @@
         <v>42</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>51</v>
@@ -3816,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>51</v>
@@ -4196,7 +4196,7 @@
         <v>42</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>51</v>
@@ -4429,13 +4429,13 @@
         <v>101</v>
       </c>
       <c r="D161" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="F161" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>70</v>
@@ -4576,7 +4576,7 @@
         <v>42</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>51</v>
@@ -4917,7 +4917,7 @@
     <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>109</v>
@@ -4956,7 +4956,7 @@
         <v>42</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>51</v>
@@ -5309,7 +5309,7 @@
     <row r="224" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224"/>
       <c r="B224" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>117</v>
@@ -5348,7 +5348,7 @@
         <v>42</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>51</v>
@@ -5695,7 +5695,7 @@
     <row r="252" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252"/>
       <c r="B252" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>12</v>
@@ -5734,7 +5734,7 @@
         <v>42</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>51</v>
@@ -6091,7 +6091,7 @@
     <row r="280" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280"/>
       <c r="B280" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>132</v>
@@ -6130,7 +6130,7 @@
         <v>42</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D298" s="13" t="s">
         <v>51</v>
@@ -6483,7 +6483,7 @@
     <row r="308" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308"/>
       <c r="B308" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>14</v>
@@ -6522,7 +6522,7 @@
         <v>42</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D326" s="13" t="s">
         <v>51</v>
@@ -6875,7 +6875,7 @@
     <row r="336" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336"/>
       <c r="B336" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>140</v>
@@ -6914,7 +6914,7 @@
         <v>42</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D354" s="13" t="s">
         <v>51</v>
@@ -7267,7 +7267,7 @@
     <row r="364" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364"/>
       <c r="B364" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>16</v>
@@ -7306,7 +7306,7 @@
         <v>42</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -7514,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D382" s="13" t="s">
         <v>51</v>
@@ -7659,7 +7659,7 @@
     <row r="392" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392"/>
       <c r="B392" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>146</v>
@@ -7698,7 +7698,7 @@
         <v>42</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D410" s="13" t="s">
         <v>51</v>
@@ -8051,7 +8051,7 @@
     <row r="420" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420"/>
       <c r="B420" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>149</v>
@@ -8090,7 +8090,7 @@
         <v>42</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -8298,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D438" s="13" t="s">
         <v>51</v>
@@ -8443,7 +8443,7 @@
     <row r="448" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448"/>
       <c r="B448" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>155</v>
@@ -8482,7 +8482,7 @@
         <v>42</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D466" s="13" t="s">
         <v>51</v>
@@ -8849,7 +8849,7 @@
     <row r="476" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476"/>
       <c r="B476" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>20</v>
@@ -8888,7 +8888,7 @@
         <v>42</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -9096,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D494" s="13" t="s">
         <v>51</v>
@@ -9273,7 +9273,7 @@
     <row r="506" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506"/>
       <c r="B506" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C506" s="3" t="s">
         <v>170</v>
@@ -9312,7 +9312,7 @@
         <v>42</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="C524" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D524" s="13" t="s">
         <v>51</v>
@@ -9697,7 +9697,7 @@
     <row r="536" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536"/>
       <c r="B536" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C536" s="3" t="s">
         <v>179</v>
@@ -9736,7 +9736,7 @@
         <v>42</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -9944,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="C554" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D554" s="13" t="s">
         <v>51</v>
@@ -10121,7 +10121,7 @@
     <row r="566" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566"/>
       <c r="B566" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C566" s="3" t="s">
         <v>188</v>
@@ -10160,7 +10160,7 @@
         <v>42</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="C584" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D584" s="13" t="s">
         <v>51</v>
@@ -10561,7 +10561,7 @@
     <row r="597" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597"/>
       <c r="B597" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C597" s="3" t="s">
         <v>198</v>
@@ -10600,7 +10600,7 @@
         <v>42</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -10808,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D615" s="13" t="s">
         <v>51</v>
@@ -10998,7 +10998,7 @@
     <row r="628" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628"/>
       <c r="B628" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C628" s="3" t="s">
         <v>212</v>
@@ -11037,7 +11037,7 @@
         <v>42</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="C646" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D646" s="13" t="s">
         <v>51</v>
@@ -11438,7 +11438,7 @@
     <row r="659" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659"/>
       <c r="B659" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>26</v>
@@ -11477,7 +11477,7 @@
         <v>42</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="C677" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D677" s="13" t="s">
         <v>51</v>
@@ -11878,7 +11878,7 @@
     <row r="690" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690"/>
       <c r="B690" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C690" s="3" t="s">
         <v>27</v>
@@ -11917,7 +11917,7 @@
         <v>42</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="C708" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D708" s="13" t="s">
         <v>51</v>
@@ -12318,7 +12318,7 @@
     <row r="721" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721"/>
       <c r="B721" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C721" s="3" t="s">
         <v>28</v>
@@ -12357,7 +12357,7 @@
         <v>42</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
       <c r="C739" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D739" s="13" t="s">
         <v>51</v>
@@ -12774,7 +12774,7 @@
     <row r="753" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753"/>
       <c r="B753" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C753" s="3" t="s">
         <v>28</v>
@@ -12813,7 +12813,7 @@
         <v>42</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="C771" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D771" s="13" t="s">
         <v>51</v>
@@ -13230,7 +13230,7 @@
     <row r="785" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785"/>
       <c r="B785" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>29</v>
@@ -13269,7 +13269,7 @@
         <v>42</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -13477,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="C803" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D803" s="13" t="s">
         <v>51</v>
@@ -13616,7 +13616,7 @@
     <row r="813" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813"/>
       <c r="B813" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>236</v>
@@ -13655,7 +13655,7 @@
         <v>42</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -13863,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="C831" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D831" s="13" t="s">
         <v>51</v>
@@ -14073,7 +14073,7 @@
         <v>42</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="C861" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D861" s="13" t="s">
         <v>51</v>
@@ -14525,7 +14525,7 @@
         <v>302</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14536,7 +14536,7 @@
         <v>303</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14547,7 +14547,7 @@
         <v>304</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14558,7 +14558,7 @@
         <v>305</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14569,7 +14569,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14580,7 +14580,7 @@
         <v>307</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14591,7 +14591,7 @@
         <v>308</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14602,7 +14602,7 @@
         <v>309</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14613,7 +14613,7 @@
         <v>310</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14624,7 +14624,7 @@
         <v>311</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14635,7 +14635,7 @@
         <v>312</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14646,7 +14646,7 @@
         <v>313</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14657,7 +14657,7 @@
         <v>314</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14668,7 +14668,7 @@
         <v>315</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14679,7 +14679,7 @@
         <v>316</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14690,7 +14690,7 @@
         <v>317</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14701,7 +14701,7 @@
         <v>318</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14712,7 +14712,7 @@
         <v>319</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14723,7 +14723,7 @@
         <v>320</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14734,7 +14734,7 @@
         <v>321</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14745,7 +14745,7 @@
         <v>322</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14756,7 +14756,7 @@
         <v>323</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14767,7 +14767,7 @@
         <v>324</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14778,7 +14778,7 @@
         <v>325</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14789,7 +14789,7 @@
         <v>326</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14800,7 +14800,7 @@
         <v>327</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14811,7 +14811,7 @@
         <v>328</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -14822,7 +14822,7 @@
         <v>329</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14833,7 +14833,7 @@
         <v>333</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -14878,7 +14878,7 @@
         <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14934,7 +14934,7 @@
         <v>272</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -14964,7 +14964,7 @@
         <v>261</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -15050,7 +15050,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -15133,7 +15133,7 @@
         <v>261</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15216,7 +15216,7 @@
         <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -15299,7 +15299,7 @@
         <v>261</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -15363,7 +15363,7 @@
         <v>273</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -15371,7 +15371,7 @@
         <v>275</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -15382,7 +15382,7 @@
         <v>261</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -15465,7 +15465,7 @@
         <v>261</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -15548,7 +15548,7 @@
         <v>261</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -15631,7 +15631,7 @@
         <v>261</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -15714,7 +15714,7 @@
         <v>261</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -15797,7 +15797,7 @@
         <v>261</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -15880,7 +15880,7 @@
         <v>261</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -15963,7 +15963,7 @@
         <v>261</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -16046,7 +16046,7 @@
         <v>261</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -16129,7 +16129,7 @@
         <v>261</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -16212,7 +16212,7 @@
         <v>261</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -16295,7 +16295,7 @@
         <v>261</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -16378,7 +16378,7 @@
         <v>261</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -16461,7 +16461,7 @@
         <v>261</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -16544,7 +16544,7 @@
         <v>261</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -16627,7 +16627,7 @@
         <v>261</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -16710,7 +16710,7 @@
         <v>261</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -16793,7 +16793,7 @@
         <v>261</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -16876,7 +16876,7 @@
         <v>261</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -16959,7 +16959,7 @@
         <v>261</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -17042,7 +17042,7 @@
         <v>261</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -17125,7 +17125,7 @@
         <v>261</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -17208,7 +17208,7 @@
         <v>261</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
